--- a/results/nested_cv_results_OFFSIDES_all.xlsx
+++ b/results/nested_cv_results_OFFSIDES_all.xlsx
@@ -831,40 +831,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.2986920761258746</v>
+        <v>1.325387816284874</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02320263667083511</v>
+        <v>0.05180965863653424</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1984549461318523</v>
+        <v>1.45553569737668</v>
       </c>
       <c r="F9" t="n">
-        <v>0.006650943179237716</v>
+        <v>0.01404061622901182</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2022735715218244</v>
+        <v>0.8188348902858797</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02006309842865668</v>
+        <v>0.02631582510649845</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09641850460405015</v>
+        <v>0.5065529259989938</v>
       </c>
       <c r="J9" t="n">
-        <v>0.008081420809387148</v>
+        <v>0.03040795155749535</v>
       </c>
       <c r="K9" t="n">
-        <v>0.09855533987760996</v>
+        <v>0.8928758144414124</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006942240318485168</v>
+        <v>0.007661396351975728</v>
       </c>
       <c r="M9" t="n">
-        <v>0.09989960625424234</v>
+        <v>0.5626598829352678</v>
       </c>
       <c r="N9" t="n">
-        <v>0.004788084655060574</v>
+        <v>0.01108630950862094</v>
       </c>
     </row>
     <row r="10">
@@ -1099,40 +1099,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.09930475666214</v>
+        <v>1.405244216740819</v>
       </c>
       <c r="D15" t="n">
-        <v>0.05035779991838103</v>
+        <v>0.0316705945398239</v>
       </c>
       <c r="E15" t="n">
-        <v>1.225141795810647</v>
+        <v>1.632086558360392</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08172098949347258</v>
+        <v>0.01295355196893767</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7091840817953334</v>
+        <v>0.8487271123062614</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02745546449250746</v>
+        <v>0.01124432355664969</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3901206748668063</v>
+        <v>0.5565171044345576</v>
       </c>
       <c r="J15" t="n">
-        <v>0.02677955938019669</v>
+        <v>0.02063516793879023</v>
       </c>
       <c r="K15" t="n">
-        <v>0.791630580695747</v>
+        <v>0.9377637961504046</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0299059802368915</v>
+        <v>0.00111258368786385</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4335112151148998</v>
+        <v>0.6943227622099871</v>
       </c>
       <c r="N15" t="n">
-        <v>0.05265694358155192</v>
+        <v>0.01364093675313126</v>
       </c>
     </row>
     <row r="16">
@@ -1367,40 +1367,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.189502353786886</v>
+        <v>1.20845774565387</v>
       </c>
       <c r="D21" t="n">
-        <v>0.05493594334334403</v>
+        <v>0.04868697547172173</v>
       </c>
       <c r="E21" t="n">
-        <v>1.225898570053255</v>
+        <v>1.255586389014444</v>
       </c>
       <c r="F21" t="n">
-        <v>0.050453834123954</v>
+        <v>0.04082568813855551</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7590292901296015</v>
+        <v>0.769602547088889</v>
       </c>
       <c r="H21" t="n">
-        <v>0.03262517929986428</v>
+        <v>0.02523665044669796</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4304730636572847</v>
+        <v>0.4388551985649808</v>
       </c>
       <c r="J21" t="n">
-        <v>0.02870222747345673</v>
+        <v>0.03249745258184722</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7616331274807493</v>
+        <v>0.7866112931960032</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03266161235519781</v>
+        <v>0.02326651423094149</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4642654425725059</v>
+        <v>0.4689750958184407</v>
       </c>
       <c r="N21" t="n">
-        <v>0.02535662188699382</v>
+        <v>0.02740596037493025</v>
       </c>
     </row>
     <row r="22">
@@ -1635,40 +1635,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.241170635250259</v>
+        <v>1.440478189186893</v>
       </c>
       <c r="D27" t="n">
-        <v>0.06808241242600097</v>
+        <v>0.05515341737485378</v>
       </c>
       <c r="E27" t="n">
-        <v>1.305068489604696</v>
+        <v>1.443698159449188</v>
       </c>
       <c r="F27" t="n">
-        <v>0.07315360556011245</v>
+        <v>0.06721882777043425</v>
       </c>
       <c r="G27" t="n">
-        <v>0.734251787776577</v>
+        <v>0.8455903888870628</v>
       </c>
       <c r="H27" t="n">
-        <v>0.04137979256727516</v>
+        <v>0.02077305438915507</v>
       </c>
       <c r="I27" t="n">
-        <v>0.5069188474736815</v>
+        <v>0.5948878002998299</v>
       </c>
       <c r="J27" t="n">
-        <v>0.03179402375430439</v>
+        <v>0.03606341673659388</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7702495112728798</v>
+        <v>0.8472297773002004</v>
       </c>
       <c r="L27" t="n">
-        <v>0.04434974394852697</v>
+        <v>0.03995020910806113</v>
       </c>
       <c r="M27" t="n">
-        <v>0.5348189783318169</v>
+        <v>0.5964683821489871</v>
       </c>
       <c r="N27" t="n">
-        <v>0.02998464626037163</v>
+        <v>0.03007129554162429</v>
       </c>
     </row>
     <row r="28">
@@ -1903,40 +1903,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.4925214679604826</v>
+        <v>1.040501234044309</v>
       </c>
       <c r="D33" t="n">
-        <v>0.04784816165615036</v>
+        <v>0.03083221013363732</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5701472821256733</v>
+        <v>1.063089196252297</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0458151677512362</v>
+        <v>0.02749495264101422</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3628858446834412</v>
+        <v>0.6761039050746349</v>
       </c>
       <c r="H33" t="n">
-        <v>0.02662438001855402</v>
+        <v>0.02656556328609738</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1296356232770414</v>
+        <v>0.3643973289696745</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0269610210817884</v>
+        <v>0.01859107565585557</v>
       </c>
       <c r="K33" t="n">
-        <v>0.3690793071132342</v>
+        <v>0.6809400950593461</v>
       </c>
       <c r="L33" t="n">
-        <v>0.01030803104472332</v>
+        <v>0.01887579606345179</v>
       </c>
       <c r="M33" t="n">
-        <v>0.2010679750124392</v>
+        <v>0.3821491011929505</v>
       </c>
       <c r="N33" t="n">
-        <v>0.03592035647000073</v>
+        <v>0.01401720015875836</v>
       </c>
     </row>
     <row r="34">
@@ -2171,40 +2171,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1.311971991177049</v>
+        <v>1.299416174141259</v>
       </c>
       <c r="D39" t="n">
-        <v>0.04680599047575953</v>
+        <v>0.05334903394436409</v>
       </c>
       <c r="E39" t="n">
-        <v>1.519920541876688</v>
+        <v>1.457255354851386</v>
       </c>
       <c r="F39" t="n">
-        <v>0.06146386642116258</v>
+        <v>0.06214817598305975</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8013868657734214</v>
+        <v>0.7880671545204435</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0173918795485081</v>
+        <v>0.01821455072549742</v>
       </c>
       <c r="I39" t="n">
-        <v>0.5105851254036278</v>
+        <v>0.5113490196208152</v>
       </c>
       <c r="J39" t="n">
-        <v>0.03430800659689904</v>
+        <v>0.03935540320641302</v>
       </c>
       <c r="K39" t="n">
-        <v>0.8811880275486546</v>
+        <v>0.8571571987716038</v>
       </c>
       <c r="L39" t="n">
-        <v>0.02548913104660665</v>
+        <v>0.02665828286741543</v>
       </c>
       <c r="M39" t="n">
-        <v>0.6387325143280334</v>
+        <v>0.6000981560797826</v>
       </c>
       <c r="N39" t="n">
-        <v>0.03626788353074572</v>
+        <v>0.03578514932729897</v>
       </c>
     </row>
     <row r="40">
@@ -2439,40 +2439,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.7274743787933178</v>
+        <v>1.250190192170364</v>
       </c>
       <c r="D45" t="n">
-        <v>0.469470168596641</v>
+        <v>0.0737218613211853</v>
       </c>
       <c r="E45" t="n">
-        <v>0.838754044136779</v>
+        <v>1.412076726546741</v>
       </c>
       <c r="F45" t="n">
-        <v>0.5954253246482831</v>
+        <v>0.05979140129686233</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4746515920083357</v>
+        <v>0.7778127605957282</v>
       </c>
       <c r="H45" t="n">
-        <v>0.2749680748468043</v>
+        <v>0.03245911359128201</v>
       </c>
       <c r="I45" t="n">
-        <v>0.2528227867849821</v>
+        <v>0.4723774315746356</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1951837349486537</v>
+        <v>0.04166299072843657</v>
       </c>
       <c r="K45" t="n">
-        <v>0.5125943949389103</v>
+        <v>0.8537638301977507</v>
       </c>
       <c r="L45" t="n">
-        <v>0.355137413282051</v>
+        <v>0.02466491299461316</v>
       </c>
       <c r="M45" t="n">
-        <v>0.3261596491978688</v>
+        <v>0.5583128963489907</v>
       </c>
       <c r="N45" t="n">
-        <v>0.2428889233452711</v>
+        <v>0.03732492036290484</v>
       </c>
     </row>
     <row r="46">
